--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_project\zidonghua\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7D268-0CC9-4F5D-BB4D-A9E8799060E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6E616-8828-4FDC-98AC-2F22E3DFDD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8655" yWindow="5895" windowWidth="16395" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,12 +65,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name=xiaoming2&amp;pwd=112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=&amp;pwd=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>username=xiaoming&amp;pwd=111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=xiaoming2&amp;pwd=112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=&amp;pwd=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/open/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW_N3834426110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW_N3834426111</t>
+  </si>
+  <si>
+    <t>EW_N3834426112</t>
+  </si>
+  <si>
+    <t>EW_N3834426113</t>
+  </si>
+  <si>
+    <t>EW_N3834426114</t>
+  </si>
+  <si>
+    <t>EW_N3834426115</t>
+  </si>
+  <si>
+    <t>EW_N3834426116</t>
+  </si>
+  <si>
+    <t>EW_N3834426117</t>
   </si>
 </sst>
 </file>
@@ -399,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,15 +469,15 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -447,12 +486,12 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -461,7 +500,217 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B432F131-6DA8-477B-A629-F9BABA0A1E7F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="48.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABF83F-33C8-4E4A-950E-F4D8C9D5EC4A}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
